--- a/Documentation/Описание битовых масок СЭС v0.0.xlsx
+++ b/Documentation/Описание битовых масок СЭС v0.0.xlsx
@@ -516,39 +516,6 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,15 +559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,6 +585,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,7 +933,7 @@
   <dimension ref="B5:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,395 +959,395 @@
   <sheetData>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="38"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12">
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="2">
         <v>14</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="2">
         <v>13</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="3">
         <v>12</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="1">
         <v>11</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="2">
         <v>9</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="4">
         <v>8</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="1">
         <v>7</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="2">
         <v>6</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="5">
         <v>3</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="2">
         <v>2</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="2">
         <v>1</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="2">
         <v>91</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="30">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="16">
         <v>7</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="17">
         <v>6</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="17">
         <v>5</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="18">
         <v>4</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="19">
         <v>3</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="17">
         <v>2</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="17">
         <v>1</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="18">
         <v>0</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="2">
         <v>88</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="22">
         <v>8</v>
       </c>
-      <c r="D13" s="37">
-        <v>88</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="23">
+        <v>89</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="22">
         <v>8</v>
       </c>
-      <c r="D14" s="37">
-        <v>88</v>
-      </c>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="23">
+        <v>90</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:U6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F6:U6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Documentation/Описание битовых масок СЭС v0.0.xlsx
+++ b/Documentation/Описание битовых масок СЭС v0.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
   <si>
     <t>AB1 Charge branch 1 Error</t>
   </si>
@@ -106,6 +106,318 @@
   </si>
   <si>
     <t>Статус AB3,                                                                                                                      Информация о модуле РВМ - исправно/неисправно</t>
+  </si>
+  <si>
+    <t>PMM Active CPU        0 - Active Main  1 - Active Backup</t>
+  </si>
+  <si>
+    <t>PMM Mode CPU 0-MAIN or 1-Backup</t>
+  </si>
+  <si>
+    <t>PMM Error UART Main (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM Error UART Backup (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM Error CAN Main (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM Error CAN Backup (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM Error Power CAN Main (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM Error Power CAN Backup (1=Error)</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС [0], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[1], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>PDM IC has error (1=Error) (no power channel)</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[2], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[3], битовая маска</t>
+  </si>
+  <si>
+    <t>Напряжение внутренней шины СЭС (для того чтобы передалось в маяке)</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[3,4]-&gt;uint16_t</t>
+  </si>
+  <si>
+    <t>SP Y+ folding has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP Y- folding has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP Y+  has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP Y-  has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP X+  has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>SP X-  has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>PMM PWR Supply Main PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PMM Power off passive CPU (1-power off)</t>
+  </si>
+  <si>
+    <t>PMM PWR Supply Backup PG (1-Error)</t>
+  </si>
+  <si>
+    <t>PBM1 has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>PBM2 has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>PBM3 has Error (1=Error)</t>
+  </si>
+  <si>
+    <t>PAM has error (1=Error)</t>
+  </si>
+  <si>
+    <t>Массив 2 данных о работе СЭС [0], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_CANmain</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_CANbackup</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Vbat1_eF1</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Vbat1_eF2</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Vbat2_eF1</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Vbat2_eF2</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_PBMs_Logic</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Deploy_Logic</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_Deploy_Power</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_5V_Bus</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_3_3V_Bus</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_State_I2C_Bus</t>
+  </si>
+  <si>
+    <t>PMM PWR_Supply_Main_PG</t>
+  </si>
+  <si>
+    <t>PMM PWR_Supply_Backup_PG</t>
+  </si>
+  <si>
+    <t>PMM PWR_OFF_Passive_CPU</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_CANmain</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_CANbackup</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_Vbat1_eF1</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_Vbat1_eF2</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_Vbat2_eF1</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_Vbat2_eF2</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_PBMs_Logic</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_Deploy_LP</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_5V_Bus</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_3_3V_Bus</t>
+  </si>
+  <si>
+    <t>PMM PWR_Ch_PG_I2C_Bus</t>
+  </si>
+  <si>
+    <t>PMM Main_Backup_mode_CPU</t>
+  </si>
+  <si>
+    <t>PMM Active_CPU</t>
+  </si>
+  <si>
+    <t>PMM Deploy stage</t>
+  </si>
+  <si>
+    <t>EPS_Mode</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[4]</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[5], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM Error_TMP1075_sensor</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_CANmain</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_CANbackup</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Vbat1_eF1</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Vbat1_eF2</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Vbat2_eF1</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Vbat2_eF2</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_PBMs_Logic</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[6], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Deploy_Logic</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_Deploy_Power</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_5V_Bus</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_3_3V_Bus</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Ch_State_I2C_Bus</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Mon_Vbat1_eF1</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Mon_Vbat1_eF2</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Mon_Vbat2_eF1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[7], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM Error_PWR_Mon_Vbat2_eF2</t>
+  </si>
+  <si>
+    <t>PMM Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PMM Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMM Error_PWR_Supply_m_b_Curr_Mon </t>
+  </si>
+  <si>
+    <t>PMM Error_I2C_Deploy_GPIO_Ext</t>
+  </si>
+  <si>
+    <t>PMM Error_I2C_Deploy_ADC</t>
+  </si>
+  <si>
+    <t>PMM Error_FRAM1</t>
+  </si>
+  <si>
+    <t>PMM Error_FRAM2</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[8], битовая маска</t>
+  </si>
+  <si>
+    <t>PMM Error_UART_port_M</t>
+  </si>
+  <si>
+    <t>PMM Error_UART_port_B</t>
+  </si>
+  <si>
+    <t>PMM Error_CAN_port_M</t>
+  </si>
+  <si>
+    <t>PMM Error_CAN_port_B</t>
+  </si>
+  <si>
+    <t>PMM CAN_constatnt_mode</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[9]</t>
+  </si>
+  <si>
+    <t>PMM Empty</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[10], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PDM Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>PDM Error_I2C_MUX</t>
+  </si>
+  <si>
+    <t>PDM Error_temp_sensor_1</t>
+  </si>
+  <si>
+    <t>PDM Error_temp_sensor_2</t>
+  </si>
+  <si>
+    <t>PDM Error_temp_sensor_3</t>
+  </si>
+  <si>
+    <t>PDM Error_temp_sensor_4</t>
   </si>
 </sst>
 </file>
@@ -145,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -507,6 +819,43 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -514,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,6 +944,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,14 +977,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,71 +1309,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:U14"/>
+  <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="10" width="26.21875" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+    <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
-    </row>
-    <row r="7" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="1">
         <v>15</v>
       </c>
@@ -1044,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1458,7 @@
       <c r="M8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="12" t="s">
@@ -1090,10 +1467,10 @@
       <c r="P8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="S8" s="9" t="s">
@@ -1106,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1128,29 +1505,29 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
@@ -1160,11 +1537,11 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="35"/>
+    <row r="11" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="16">
         <v>7</v>
       </c>
@@ -1198,7 +1575,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1621,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1667,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="2:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
@@ -1336,18 +1713,640 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
     </row>
+    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+    </row>
+    <row r="18" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="25">
+        <v>7</v>
+      </c>
+      <c r="G18" s="26">
+        <v>6</v>
+      </c>
+      <c r="H18" s="26">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2</v>
+      </c>
+      <c r="L18" s="26">
+        <v>1</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="25">
+        <v>8</v>
+      </c>
+      <c r="D19" s="26">
+        <v>127</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="25">
+        <v>8</v>
+      </c>
+      <c r="D20" s="26">
+        <v>128</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="25">
+        <v>8</v>
+      </c>
+      <c r="D21" s="26">
+        <v>129</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="25">
+        <v>16</v>
+      </c>
+      <c r="D22" s="26">
+        <v>130</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+    </row>
+    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+    </row>
+    <row r="26" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="25">
+        <v>7</v>
+      </c>
+      <c r="G26" s="26">
+        <v>6</v>
+      </c>
+      <c r="H26" s="26">
+        <v>5</v>
+      </c>
+      <c r="I26" s="27">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="25">
+        <v>8</v>
+      </c>
+      <c r="D27" s="26">
+        <v>201</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="25">
+        <v>8</v>
+      </c>
+      <c r="D28" s="26">
+        <v>202</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="25">
+        <v>8</v>
+      </c>
+      <c r="D29" s="26">
+        <v>203</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="25">
+        <v>8</v>
+      </c>
+      <c r="D30" s="26">
+        <v>204</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="25">
+        <v>8</v>
+      </c>
+      <c r="D31" s="26">
+        <v>205</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+    </row>
+    <row r="32" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="25">
+        <v>8</v>
+      </c>
+      <c r="D32" s="26">
+        <v>206</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="25">
+        <v>8</v>
+      </c>
+      <c r="D33" s="26">
+        <v>207</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="25">
+        <v>8</v>
+      </c>
+      <c r="D34" s="26">
+        <v>208</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="25">
+        <v>8</v>
+      </c>
+      <c r="D35" s="26">
+        <v>209</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="25">
+        <v>8</v>
+      </c>
+      <c r="D36" s="26">
+        <v>210</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+    </row>
+    <row r="37" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="25">
+        <v>8</v>
+      </c>
+      <c r="D37" s="26">
+        <v>211</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L37" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="24">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F6:U6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1360,7 +2359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1372,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Описание битовых масок СЭС v0.0.xlsx
+++ b/Documentation/Описание битовых масок СЭС v0.0.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="462">
   <si>
     <t>AB1 Charge branch 1 Error</t>
   </si>
@@ -418,6 +418,990 @@
   </si>
   <si>
     <t>PDM Error_temp_sensor_4</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[11], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[0] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[12], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[1] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[13], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[2] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[14], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[3] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[15], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[4] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[16], битовая маска</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] PG_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] Error_State_eF_in</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PDM PWR_Channel[5] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>PDM_ID_module</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[19], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM1  Branch_1_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM1  Branch_1_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[18]</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[17]</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_AgeScalar</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_1_CycleCounter</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[20], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[22], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM1  Branch_2_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM1  Branch_2_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[23], uint8_t</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_AgeScalar</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[24], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[21], uint8_t</t>
+  </si>
+  <si>
+    <t>PBM1 Branch_2_CycleCounter</t>
+  </si>
+  <si>
+    <t>PBM1  PCA9534_ON_Heat_1</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_ON_Heat_2</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_TempSens_State_1</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_TempSens_State_2</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_PIO_1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[25], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_PIO_2</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_P1</t>
+  </si>
+  <si>
+    <t>PBM1 PCA9534_P2</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[26], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM1 Error_DS2777_1</t>
+  </si>
+  <si>
+    <t>PBM1 Error_DS2777_2</t>
+  </si>
+  <si>
+    <t>PBM1Error_TMP1075_1</t>
+  </si>
+  <si>
+    <t>PBM1 Error_TMP1075_2</t>
+  </si>
+  <si>
+    <t>PBM1 Error_TMP1075_3</t>
+  </si>
+  <si>
+    <t>PBM1 Error_TMP1075_4</t>
+  </si>
+  <si>
+    <t>PBM1 Error_PCA9534</t>
+  </si>
+  <si>
+    <t>PBM1 Error_Heat_1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[27], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[28], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[29], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[30], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[31], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[32], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[33], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[34], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[35], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[36], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM2  Branch_1_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM2  Branch_1_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_AgeScalar</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_1_CycleCounter</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM2  Branch_2_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM2  Branch_2_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_AgeScalar</t>
+  </si>
+  <si>
+    <t>PBM2 Branch_2_CycleCounter</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_P2</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_P1</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_PIO_2</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_PIO_1</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_TempSens_State_2</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_TempSens_State_1</t>
+  </si>
+  <si>
+    <t>PBM2 PCA9534_ON_Heat_2</t>
+  </si>
+  <si>
+    <t>PBM2  PCA9534_ON_Heat_1</t>
+  </si>
+  <si>
+    <t>PBM2 Error_Heat_1</t>
+  </si>
+  <si>
+    <t>PBM2 Error_PCA9534</t>
+  </si>
+  <si>
+    <t>PBM2 Error_TMP1075_4</t>
+  </si>
+  <si>
+    <t>PBM2 Error_TMP1075_3</t>
+  </si>
+  <si>
+    <t>PBM2 Error_TMP1075_2</t>
+  </si>
+  <si>
+    <t>PBM2 Error_TMP1075_1</t>
+  </si>
+  <si>
+    <t>PBM2 Error_DS2777_2</t>
+  </si>
+  <si>
+    <t>PBM2 Error_DS2777_1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[37], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[38], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[39], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[40], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[41], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[42], uint8_t</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[43], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[44], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[45], битовая маска</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM3  Branch_1_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM3  Branch_1_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_AgeScalar</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_1_CycleCounter</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_ChgTerminateFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBM3  Branch_2_ActEmptyFlag </t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_StbEmptyFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_LrnFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_ChgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_DchgControlFlag</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_ChgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM3  Branch_2_DchgEnableBit</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_AgeScalar</t>
+  </si>
+  <si>
+    <t>PBM3 Branch_2_CycleCounter</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_P2</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_P1</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_PIO_2</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_PIO_1</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_TempSens_State_2</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_TempSens_State_1</t>
+  </si>
+  <si>
+    <t>PBM3 PCA9534_ON_Heat_2</t>
+  </si>
+  <si>
+    <t>PBM3  PCA9534_ON_Heat_1</t>
+  </si>
+  <si>
+    <t>PBM3 Error_Heat_1</t>
+  </si>
+  <si>
+    <t>PBM3 Error_PCA9534</t>
+  </si>
+  <si>
+    <t>PBM3 Error_TMP1075_4</t>
+  </si>
+  <si>
+    <t>PBM3 Error_TMP1075_3</t>
+  </si>
+  <si>
+    <t>PBM3 Error_TMP1075_2</t>
+  </si>
+  <si>
+    <t>PBM3 Error_TMP1075_1</t>
+  </si>
+  <si>
+    <t>PBM3 Error_DS2777_2</t>
+  </si>
+  <si>
+    <t>PBM3 Error_DS2777_1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[46], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM State_DC_DC</t>
+  </si>
+  <si>
+    <t>PAM State_LDO</t>
+  </si>
+  <si>
+    <t>PAM PG_DC_DC</t>
+  </si>
+  <si>
+    <t>PAM  PG_LDO</t>
+  </si>
+  <si>
+    <t>PAM Error_State_DC_DC</t>
+  </si>
+  <si>
+    <t>PAM Error_State_LDO</t>
+  </si>
+  <si>
+    <t>PAM Error_I2C_GPIO_Ext</t>
+  </si>
+  <si>
+    <t>PAM Error_I2C_MUX_1</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[47], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Error_I2C_MUX_2</t>
+  </si>
+  <si>
+    <t>PAM Error_temp_sensor_1</t>
+  </si>
+  <si>
+    <t>PAM  Error_temp_sensor_2</t>
+  </si>
+  <si>
+    <t>PAM Error_temp_sensor_3</t>
+  </si>
+  <si>
+    <t>PAM  Error_temp_sensor_4</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[0] State_ID_In</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[0] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[1] State_ID_In</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[48], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[1] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[2] State_ID_In</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[2] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[3] State_ID_In</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[3] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[4] State_ID_In</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[4] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM  PWR_IN_Channel[5] State_ID_In</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[49], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM PWR_IN_Channel[5] Error_PWR_Mon</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[0] State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[0] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[0] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[1] State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[1] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[1] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[2] State_eF_out</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[50], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[2] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[2] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[3] State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[3] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[3] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[4] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[4] State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[4] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[51], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[5] State_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[5] PG_eF_out</t>
+  </si>
+  <si>
+    <t>PAM PWR_Channel_TM_SP[5] Error_State_eF_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[52], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] State_ID[5]</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[53], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[0] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[54], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[55], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] State_ID[5]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[1] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[56], битовая маска</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[57], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] State_ID[5]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[2] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[58], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM_ID_module</t>
+  </si>
+  <si>
+    <t>Статус элементов системы модуля СЭС[59], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [0], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [1], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] State_ID[5]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[3] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [2], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [3], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] State_ID[5]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[4] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [4], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [5], битовая маска</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[4]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] State_ID[5]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_temp_sensor[0]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_temp_sensor[1]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_temp_sensor[2]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_temp_sensor[3]</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_I2C_GPIO_Ext1</t>
+  </si>
+  <si>
+    <t>PAM Solar_Panel[5] Error_I2C_GPIO_Ext2</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [6], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [7], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [8], битовая маска</t>
+  </si>
+  <si>
+    <t>Массив 3 данных о работе СЭС [9], битовая маска</t>
   </si>
 </sst>
 </file>
@@ -449,12 +1433,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="30">
@@ -863,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,6 +2001,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:U37"/>
+  <dimension ref="B5:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,8 +3335,1870 @@
         <v>127</v>
       </c>
     </row>
+    <row r="38" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="25">
+        <v>8</v>
+      </c>
+      <c r="D38" s="26">
+        <v>212</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="25">
+        <v>8</v>
+      </c>
+      <c r="D39" s="26">
+        <v>213</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="25">
+        <v>8</v>
+      </c>
+      <c r="D40" s="26">
+        <v>214</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="L40" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="25">
+        <v>8</v>
+      </c>
+      <c r="D41" s="26">
+        <v>215</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="25">
+        <v>8</v>
+      </c>
+      <c r="D42" s="26">
+        <v>216</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="25">
+        <v>8</v>
+      </c>
+      <c r="D43" s="26">
+        <v>217</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="25">
+        <v>8</v>
+      </c>
+      <c r="D44" s="26">
+        <v>218</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
+    </row>
+    <row r="45" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="25">
+        <v>8</v>
+      </c>
+      <c r="D45" s="26">
+        <v>219</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+    </row>
+    <row r="46" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="25">
+        <v>8</v>
+      </c>
+      <c r="D46" s="26">
+        <v>220</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="25">
+        <v>8</v>
+      </c>
+      <c r="D47" s="26">
+        <v>221</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
+    </row>
+    <row r="48" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="25">
+        <v>8</v>
+      </c>
+      <c r="D48" s="26">
+        <v>222</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+    </row>
+    <row r="49" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="25">
+        <v>8</v>
+      </c>
+      <c r="D49" s="26">
+        <v>223</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="25">
+        <v>8</v>
+      </c>
+      <c r="D50" s="26">
+        <v>224</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="47"/>
+    </row>
+    <row r="51" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="25">
+        <v>8</v>
+      </c>
+      <c r="D51" s="26">
+        <v>225</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="47"/>
+    </row>
+    <row r="52" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="25">
+        <v>8</v>
+      </c>
+      <c r="D52" s="26">
+        <v>226</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="25">
+        <v>8</v>
+      </c>
+      <c r="D53" s="26">
+        <v>227</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="25">
+        <v>8</v>
+      </c>
+      <c r="D54" s="26">
+        <v>228</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="25">
+        <v>8</v>
+      </c>
+      <c r="D55" s="26">
+        <v>229</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="25">
+        <v>8</v>
+      </c>
+      <c r="D56" s="26">
+        <v>230</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47"/>
+    </row>
+    <row r="57" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="25">
+        <v>8</v>
+      </c>
+      <c r="D57" s="26">
+        <v>231</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
+    </row>
+    <row r="58" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="25">
+        <v>8</v>
+      </c>
+      <c r="D58" s="26">
+        <v>232</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="25">
+        <v>8</v>
+      </c>
+      <c r="D59" s="26">
+        <v>233</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47"/>
+    </row>
+    <row r="60" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="25">
+        <v>8</v>
+      </c>
+      <c r="D60" s="26">
+        <v>234</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="47"/>
+    </row>
+    <row r="61" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="25">
+        <v>8</v>
+      </c>
+      <c r="D61" s="26">
+        <v>235</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="25">
+        <v>8</v>
+      </c>
+      <c r="D62" s="26">
+        <v>236</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="25">
+        <v>8</v>
+      </c>
+      <c r="D63" s="26">
+        <v>237</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="25">
+        <v>8</v>
+      </c>
+      <c r="D64" s="26">
+        <v>238</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="25">
+        <v>8</v>
+      </c>
+      <c r="D65" s="26">
+        <v>239</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+    </row>
+    <row r="66" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="25">
+        <v>8</v>
+      </c>
+      <c r="D66" s="26">
+        <v>240</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="47"/>
+    </row>
+    <row r="67" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="25">
+        <v>8</v>
+      </c>
+      <c r="D67" s="26">
+        <v>241</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="25">
+        <v>8</v>
+      </c>
+      <c r="D68" s="26">
+        <v>242</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="47"/>
+    </row>
+    <row r="69" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="25">
+        <v>8</v>
+      </c>
+      <c r="D69" s="26">
+        <v>243</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+    </row>
+    <row r="70" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="25">
+        <v>8</v>
+      </c>
+      <c r="D70" s="26">
+        <v>244</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="25">
+        <v>8</v>
+      </c>
+      <c r="D71" s="26">
+        <v>245</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="25">
+        <v>8</v>
+      </c>
+      <c r="D72" s="26">
+        <v>246</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="25">
+        <v>8</v>
+      </c>
+      <c r="D73" s="26">
+        <v>247</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" s="25">
+        <v>8</v>
+      </c>
+      <c r="D74" s="26">
+        <v>248</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="25">
+        <v>8</v>
+      </c>
+      <c r="D75" s="26">
+        <v>249</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="H75" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="I75" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="25">
+        <v>8</v>
+      </c>
+      <c r="D76" s="26">
+        <v>250</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="R76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="50">
+        <v>8</v>
+      </c>
+      <c r="D77" s="51">
+        <v>251</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" s="25">
+        <v>8</v>
+      </c>
+      <c r="D78" s="26">
+        <v>252</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="25">
+        <v>8</v>
+      </c>
+      <c r="D79" s="26">
+        <v>253</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="25">
+        <v>8</v>
+      </c>
+      <c r="D80" s="26">
+        <v>254</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="47"/>
+    </row>
+    <row r="81" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="25">
+        <v>8</v>
+      </c>
+      <c r="D81" s="26">
+        <v>255</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="25">
+        <v>8</v>
+      </c>
+      <c r="D82" s="26">
+        <v>256</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" s="25">
+        <v>8</v>
+      </c>
+      <c r="D83" s="26">
+        <v>257</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C84" s="25">
+        <v>8</v>
+      </c>
+      <c r="D84" s="26">
+        <v>258</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C85" s="25">
+        <v>8</v>
+      </c>
+      <c r="D85" s="26">
+        <v>259</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" s="25">
+        <v>8</v>
+      </c>
+      <c r="D86" s="26">
+        <v>260</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
+    </row>
+    <row r="90" spans="2:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="32"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="25">
+        <v>7</v>
+      </c>
+      <c r="G90" s="26">
+        <v>6</v>
+      </c>
+      <c r="H90" s="26">
+        <v>5</v>
+      </c>
+      <c r="I90" s="27">
+        <v>4</v>
+      </c>
+      <c r="J90" s="5">
+        <v>3</v>
+      </c>
+      <c r="K90" s="26">
+        <v>2</v>
+      </c>
+      <c r="L90" s="26">
+        <v>1</v>
+      </c>
+      <c r="M90" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="25">
+        <v>8</v>
+      </c>
+      <c r="D91" s="26">
+        <v>330</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92" s="25">
+        <v>8</v>
+      </c>
+      <c r="D92" s="26">
+        <v>331</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C93" s="25">
+        <v>8</v>
+      </c>
+      <c r="D93" s="26">
+        <v>332</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C94" s="25">
+        <v>8</v>
+      </c>
+      <c r="D94" s="26">
+        <v>333</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C95" s="25">
+        <v>8</v>
+      </c>
+      <c r="D95" s="26">
+        <v>334</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C96" s="25">
+        <v>8</v>
+      </c>
+      <c r="D96" s="26">
+        <v>335</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C97" s="25">
+        <v>8</v>
+      </c>
+      <c r="D97" s="26">
+        <v>336</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="47"/>
+    </row>
+    <row r="98" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C98" s="25">
+        <v>8</v>
+      </c>
+      <c r="D98" s="26">
+        <v>337</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="47"/>
+    </row>
+    <row r="99" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="25">
+        <v>8</v>
+      </c>
+      <c r="D99" s="26">
+        <v>338</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="47"/>
+    </row>
+    <row r="100" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C100" s="25">
+        <v>8</v>
+      </c>
+      <c r="D100" s="26">
+        <v>339</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="47"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="48">
+    <mergeCell ref="F97:M97"/>
+    <mergeCell ref="F98:M98"/>
+    <mergeCell ref="F99:M99"/>
+    <mergeCell ref="F100:M100"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:M89"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="F68:M68"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="F80:M80"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F59:M59"/>
+    <mergeCell ref="F60:M60"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F45:M45"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F50:M50"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="F36:M36"/>
